--- a/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.1.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IMS\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물\설계\AND-04.DB설계산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,6 @@
     <sheet name="엔터티정의서" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +354,22 @@
   </si>
   <si>
     <t>3) 계약 해지, 퇴사(수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초, 중, 고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RATING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,6 +771,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -803,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1575,16 +1590,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1650,18 +1665,18 @@
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1674,99 +1689,99 @@
         <v>32</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1858,169 +1873,191 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>42</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="G24" s="24"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E26" s="11"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="11"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.1.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_개발자 등록_AND-04_테이블정의서_v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최초작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,14 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통_프리개발자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프리, 외주 개발자 정보 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,26 +225,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외주, 프리랜서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소속사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,30 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구분 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외주, 프리랜서 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01, 02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_IFG_FR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 채번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T, F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,14 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TELNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIRTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 row 사용여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,34 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIVCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGENCY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프리랜서, 외주업체의 개발자 정보를 관리한다. 계약 해지, 퇴사자의 경우 해당 정보를 삭제하지 않고 사용 여부로 관리한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,7 +285,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RATING</t>
+    <t>NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외주, 프리랜서 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리랜서 개발자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_FRLC_DEVP_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_FRLC_DEVP_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1139,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1226,13 +1198,15 @@
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="22">
+        <v>44056</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1407,12 +1381,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="39.875" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
@@ -1446,19 +1420,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1466,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1570,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1555,7 @@
     <col min="1" max="1" width="13.875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="20" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="20" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="20"/>
@@ -1591,7 +1565,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1603,41 +1577,41 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="22">
         <v>44056</v>
@@ -1645,16 +1619,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1663,10 +1637,10 @@
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -1677,16 +1651,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="32"/>
@@ -1698,7 +1672,7 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="35"/>
@@ -1737,10 +1711,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -1752,7 +1726,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -1764,7 +1738,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="29" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -1785,7 +1759,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1807,45 +1781,45 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="H17" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -1853,19 +1827,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -1873,38 +1847,38 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="11" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -1913,151 +1887,109 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="G23" s="24"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="G26" s="24"/>
-      <c r="H26" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="11"/>
+      <c r="H26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
